--- a/results/mp/logistic/corona/confidence/126/stop-words-desired-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/stop-words-desired-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,24 +40,24 @@
     <t>name</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
     <t>forced</t>
   </si>
   <si>
@@ -70,12 +70,12 @@
     <t>panic</t>
   </si>
   <si>
+    <t>drop</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
@@ -88,21 +88,21 @@
     <t>love</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
@@ -115,76 +115,88 @@
     <t>safe</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>great</t>
+    <t>thanks</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>share</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>giving</t>
+    <t>protect</t>
   </si>
   <si>
     <t>alert</t>
@@ -193,10 +205,10 @@
     <t>safety</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
     <t>increase</t>
+  </si>
+  <si>
+    <t>important</t>
   </si>
 </sst>
 </file>
@@ -554,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -565,7 +577,7 @@
         <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -623,13 +635,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.868421052631579</v>
+        <v>0.8561643835616438</v>
       </c>
       <c r="C3">
-        <v>33</v>
+        <v>250</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>250</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -641,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>23</v>
@@ -697,13 +709,13 @@
         <v>24</v>
       </c>
       <c r="K4">
-        <v>0.9583333333333334</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -715,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -723,13 +735,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8493150684931506</v>
+        <v>0.8378378378378378</v>
       </c>
       <c r="C5">
-        <v>248</v>
+        <v>31</v>
       </c>
       <c r="D5">
-        <v>248</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -741,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K5">
-        <v>0.9491525423728814</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="L5">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="M5">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -765,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -773,13 +785,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8108108108108109</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -791,19 +803,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K6">
-        <v>0.9444444444444444</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L6">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="M6">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -815,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -823,13 +835,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7666666666666667</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -841,19 +853,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K7">
-        <v>0.9393939393939394</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -873,13 +885,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7307692307692307</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -891,19 +903,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K8">
-        <v>0.9230769230769231</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L8">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="M8">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -915,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -973,13 +985,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7222222222222222</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C10">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D10">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -991,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>30</v>
@@ -1023,13 +1035,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.582010582010582</v>
+        <v>0.5978835978835979</v>
       </c>
       <c r="C11">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D11">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1041,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>31</v>
@@ -1073,13 +1085,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4689922480620155</v>
+        <v>0.4844961240310077</v>
       </c>
       <c r="C12">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="D12">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1091,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>32</v>
@@ -1123,13 +1135,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4117647058823529</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="C13">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D13">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1141,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K13">
-        <v>0.8984375</v>
+        <v>0.8936170212765957</v>
       </c>
       <c r="L13">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="M13">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1165,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1173,13 +1185,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4067796610169492</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="C14">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D14">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1191,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>34</v>
@@ -1247,13 +1259,13 @@
         <v>35</v>
       </c>
       <c r="K15">
-        <v>0.88125</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="L15">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="M15">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1265,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1273,13 +1285,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2885906040268457</v>
+        <v>0.2416107382550336</v>
       </c>
       <c r="C16">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D16">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1291,19 +1303,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K16">
-        <v>0.8773584905660378</v>
+        <v>0.8828125</v>
       </c>
       <c r="L16">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="M16">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1315,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1323,13 +1335,13 @@
         <v>37</v>
       </c>
       <c r="K17">
-        <v>0.8620689655172413</v>
+        <v>0.8658536585365854</v>
       </c>
       <c r="L17">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="M17">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1341,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1349,13 +1361,13 @@
         <v>38</v>
       </c>
       <c r="K18">
-        <v>0.8611111111111112</v>
+        <v>0.8625</v>
       </c>
       <c r="L18">
-        <v>31</v>
+        <v>138</v>
       </c>
       <c r="M18">
-        <v>31</v>
+        <v>138</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1367,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1375,13 +1387,13 @@
         <v>39</v>
       </c>
       <c r="K19">
-        <v>0.8536585365853658</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L19">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="M19">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1393,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1401,13 +1413,13 @@
         <v>40</v>
       </c>
       <c r="K20">
-        <v>0.851063829787234</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L20">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="M20">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1419,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1427,13 +1439,13 @@
         <v>41</v>
       </c>
       <c r="K21">
-        <v>0.82</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L21">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="M21">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1445,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1531,13 +1543,13 @@
         <v>45</v>
       </c>
       <c r="K25">
-        <v>0.7857142857142857</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L25">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M25">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1549,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1609,13 +1621,13 @@
         <v>48</v>
       </c>
       <c r="K28">
-        <v>0.7470588235294118</v>
+        <v>0.7529411764705882</v>
       </c>
       <c r="L28">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M28">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1627,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1635,13 +1647,13 @@
         <v>49</v>
       </c>
       <c r="K29">
-        <v>0.7254237288135593</v>
+        <v>0.7220338983050848</v>
       </c>
       <c r="L29">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M29">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1653,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1661,13 +1673,13 @@
         <v>50</v>
       </c>
       <c r="K30">
-        <v>0.7071129707112971</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L30">
-        <v>169</v>
+        <v>20</v>
       </c>
       <c r="M30">
-        <v>169</v>
+        <v>20</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1679,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>70</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1687,13 +1699,13 @@
         <v>51</v>
       </c>
       <c r="K31">
-        <v>0.6966292134831461</v>
+        <v>0.7112970711297071</v>
       </c>
       <c r="L31">
-        <v>62</v>
+        <v>170</v>
       </c>
       <c r="M31">
-        <v>62</v>
+        <v>170</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1705,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>27</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1713,13 +1725,13 @@
         <v>52</v>
       </c>
       <c r="K32">
-        <v>0.6923076923076923</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L32">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="M32">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1731,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1739,13 +1751,13 @@
         <v>53</v>
       </c>
       <c r="K33">
-        <v>0.6808510638297872</v>
+        <v>0.7</v>
       </c>
       <c r="L33">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="M33">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1757,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1765,13 +1777,13 @@
         <v>54</v>
       </c>
       <c r="K34">
-        <v>0.6785714285714286</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L34">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="M34">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1783,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1791,13 +1803,13 @@
         <v>55</v>
       </c>
       <c r="K35">
-        <v>0.6428571428571429</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L35">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="M35">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1809,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1817,13 +1829,13 @@
         <v>56</v>
       </c>
       <c r="K36">
-        <v>0.6363636363636364</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L36">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M36">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1835,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1843,13 +1855,13 @@
         <v>57</v>
       </c>
       <c r="K37">
-        <v>0.5952380952380952</v>
+        <v>0.6615384615384615</v>
       </c>
       <c r="L37">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="M37">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1861,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1869,13 +1881,13 @@
         <v>58</v>
       </c>
       <c r="K38">
-        <v>0.5882352941176471</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L38">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="M38">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1887,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1895,13 +1907,13 @@
         <v>59</v>
       </c>
       <c r="K39">
-        <v>0.4520547945205479</v>
+        <v>0.651685393258427</v>
       </c>
       <c r="L39">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="M39">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1913,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1921,25 +1933,129 @@
         <v>60</v>
       </c>
       <c r="K40">
-        <v>0.3205128205128205</v>
+        <v>0.6027397260273972</v>
       </c>
       <c r="L40">
+        <v>44</v>
+      </c>
+      <c r="M40">
+        <v>44</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K41">
+        <v>0.5952380952380952</v>
+      </c>
+      <c r="L41">
         <v>25</v>
       </c>
-      <c r="M40">
+      <c r="M41">
         <v>25</v>
       </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>53</v>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K42">
+        <v>0.5686274509803921</v>
+      </c>
+      <c r="L42">
+        <v>29</v>
+      </c>
+      <c r="M42">
+        <v>29</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K43">
+        <v>0.4743589743589743</v>
+      </c>
+      <c r="L43">
+        <v>37</v>
+      </c>
+      <c r="M43">
+        <v>37</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K44">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="L44">
+        <v>20</v>
+      </c>
+      <c r="M44">
+        <v>20</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
